--- a/HPR400_protocol_table.xlsx
+++ b/HPR400_protocol_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f90da2cece8b6d5/cursos/Survey2024_SeaHouseBrasil/produtos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="8_{B3D07EA3-366F-4BB3-AC95-7E656196EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE37195-1A26-43C1-B313-91D476F09439}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="8_{B3D07EA3-366F-4BB3-AC95-7E656196EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66EC576-4C8D-41DB-82B5-1FF85DF8DF01}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{37882E75-0703-487B-A0BA-35DB737D63D7}"/>
   </bookViews>
@@ -60,27 +60,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Canais em Uso:</t>
-  </si>
-  <si>
-    <t>Canais Disponíveis</t>
-  </si>
-  <si>
-    <t>Canais Indisponíveis</t>
-  </si>
-  <si>
-    <t>Protocolo HPR400 (Uso de Canais da Série B)</t>
-  </si>
-  <si>
-    <t>Para informar múltiplos canais em uso, use vírgula para separar os valores</t>
-  </si>
-  <si>
-    <t>Canais inseridos corretamente</t>
-  </si>
-  <si>
-    <t>Criação: Micael Broggio (micaelbroggio@gmail.com)</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Agradecimentos a equipe </t>
     </r>
@@ -105,6 +84,27 @@
       </rPr>
       <t xml:space="preserve"> e toda a TURMA 03 do treinamento profissional - SURVEYOR OFFSHORE / 2024. Muito Obrigado!</t>
     </r>
+  </si>
+  <si>
+    <t>HPR400 Protocol (Use of B-Series Channels)</t>
+  </si>
+  <si>
+    <t>To report multiple channels in use, use commas to separate the values.</t>
+  </si>
+  <si>
+    <t>Channels in use:</t>
+  </si>
+  <si>
+    <t>development: Micael Broggio (micaelbroggio@gmail.com)</t>
+  </si>
+  <si>
+    <t>Available Channels</t>
+  </si>
+  <si>
+    <t>Unavailable Channels</t>
+  </si>
+  <si>
+    <t>Channels inserted correctly</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -331,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D78FDA-2102-4818-9A31-F548F2062883}">
-  <dimension ref="B2:O98"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,67 +733,67 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="str">
+      <c r="B6" s="18" t="str">
         <f>C98</f>
         <v/>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -987,31 +987,31 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="E16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4233,51 +4233,51 @@
       </c>
     </row>
     <row r="92" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
     </row>
     <row r="93" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="16" t="e">
-        <f>_xlfn.CONCAT("Houve algum problema com os canais inseridos. Revise os valores: ",N29:O90)</f>
+      <c r="C93" s="23" t="e">
+        <f>_xlfn.CONCAT("Error! Verify the channels inserted. Please review the values: ",N29:O90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
     </row>
     <row r="94" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
+      <c r="C94" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
+      <c r="C95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
     </row>
     <row r="96" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
@@ -4291,24 +4291,30 @@
     </row>
     <row r="97" spans="3:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="16" t="str">
+      <c r="C98" s="23" t="str">
         <f>IF(D4="","",IF(D4="T03",C95,IF(M29="",C94,C93)))</f>
         <v/>
       </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-    </row>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+    </row>
+    <row r="99" spans="3:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TxGs/SPO1FORu1TYN1EzqJoLjR+tRuJDDd+/N3kSUWXxeWfpRy7kiDbZZwjm6xLB/41dfiTC1rOl8GxKVSpq1A==" saltValue="7UlJREKDs/t5zFIhNyD9pA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="zeqqMZK9qvt2AW4YTK+1F8Y25vCS/6jKPq5D4Uk4giaTS+Gof5+EemiUdOtE8neyqKB2iENb5I/EIUJW8EIiAA==" saltValue="8B0U2WqEqFOJyE2rM0IAjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D4" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="12">
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="B6:I7"/>
@@ -4316,11 +4322,6 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="E16:I16"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
     <cfRule type="expression" dxfId="4" priority="2">

--- a/HPR400_protocol_table.xlsx
+++ b/HPR400_protocol_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f90da2cece8b6d5/cursos/Survey2024_SeaHouseBrasil/produtos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f90da2cece8b6d5/cursos/Survey2024_SeaHouseBrasil/produtos/HPR400_protocol_table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="8_{B3D07EA3-366F-4BB3-AC95-7E656196EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C66EC576-4C8D-41DB-82B5-1FF85DF8DF01}"/>
+  <xr:revisionPtr revIDLastSave="538" documentId="8_{B3D07EA3-366F-4BB3-AC95-7E656196EA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D8783C4-B70E-448E-AB58-F2B5D489A6B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{37882E75-0703-487B-A0BA-35DB737D63D7}"/>
   </bookViews>
@@ -308,6 +308,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -328,9 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D78FDA-2102-4818-9A31-F548F2062883}">
   <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,16 +733,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,50 +750,50 @@
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="str">
+      <c r="B6" s="19" t="str">
         <f>C98</f>
         <v/>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="2:12" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -987,31 +987,31 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4233,51 +4233,51 @@
       </c>
     </row>
     <row r="92" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
     </row>
     <row r="93" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="23" t="e">
+      <c r="C93" s="16" t="e">
         <f>_xlfn.CONCAT("Error! Verify the channels inserted. Please review the values: ",N29:O90)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
     </row>
     <row r="94" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="23" t="s">
+      <c r="C94" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
     </row>
     <row r="95" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
+      <c r="C95" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
     </row>
     <row r="96" spans="3:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
@@ -4291,30 +4291,25 @@
     </row>
     <row r="97" spans="3:10" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="98" spans="3:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="23" t="str">
+      <c r="C98" s="16" t="str">
         <f>IF(D4="","",IF(D4="T03",C95,IF(M29="",C94,C93)))</f>
         <v/>
       </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
     </row>
     <row r="99" spans="3:10" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zeqqMZK9qvt2AW4YTK+1F8Y25vCS/6jKPq5D4Uk4giaTS+Gof5+EemiUdOtE8neyqKB2iENb5I/EIUJW8EIiAA==" saltValue="8B0U2WqEqFOJyE2rM0IAjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="y605ntP/W/J3o0lXEcgatCWgC1mEcKbGICraYwnnpSs3XlqDCOhuibq15/Gr2zmpoqOTRDmlxzONfKOJS9YpzA==" saltValue="jRWolnF+F7TpddUOXtZNIA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D4" name="Intervalo1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="B6:I7"/>
@@ -4322,6 +4317,11 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="E16:I16"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
   </mergeCells>
   <conditionalFormatting sqref="B6">
     <cfRule type="expression" dxfId="4" priority="2">
